--- a/src/test/resources/ResponsiveED.xlsx
+++ b/src/test/resources/ResponsiveED.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\AutomationResponsiveED07\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\AutomationResponsiveED99\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -664,7 +664,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -775,7 +775,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
